--- a/Excel/profit.xlsx
+++ b/Excel/profit.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>std_pct</t>
+  </si>
+  <si>
+    <t>KCE</t>
   </si>
 </sst>
 </file>
@@ -440,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,6 +520,77 @@
         <v>22</v>
       </c>
     </row>
+    <row r="2" spans="1:23">
+      <c r="A2">
+        <v>2516</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>2022</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>2517909</v>
+      </c>
+      <c r="G2">
+        <v>2105875</v>
+      </c>
+      <c r="H2">
+        <v>412034</v>
+      </c>
+      <c r="I2">
+        <v>19.57</v>
+      </c>
+      <c r="J2">
+        <v>2517909</v>
+      </c>
+      <c r="K2">
+        <v>2466801</v>
+      </c>
+      <c r="L2">
+        <v>51108</v>
+      </c>
+      <c r="M2">
+        <v>2.07</v>
+      </c>
+      <c r="N2">
+        <v>655243</v>
+      </c>
+      <c r="O2">
+        <v>604135</v>
+      </c>
+      <c r="P2">
+        <v>51108</v>
+      </c>
+      <c r="Q2">
+        <v>8.459698577304742</v>
+      </c>
+      <c r="R2">
+        <v>571905</v>
+      </c>
+      <c r="S2">
+        <v>83338</v>
+      </c>
+      <c r="T2">
+        <v>14.57200059450433</v>
+      </c>
+      <c r="U2">
+        <v>249</v>
+      </c>
+      <c r="V2">
+        <v>11.16792479295227</v>
+      </c>
+      <c r="W2">
+        <v>7.578243521664164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
